--- a/data/aaaaa.xlsx
+++ b/data/aaaaa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingv2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingv2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>sku</t>
   </si>
@@ -42,54 +42,6 @@
   </si>
   <si>
     <t>case</t>
-  </si>
-  <si>
-    <t>h13312586</t>
-  </si>
-  <si>
-    <t>iPhone 6/6S Plus</t>
-  </si>
-  <si>
-    <t>iPhone 7/8 Plus</t>
-  </si>
-  <si>
-    <t>vn</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>PKE127349717-Đỗ Phấn</t>
-  </si>
-  <si>
-    <t>PKE127349751-Anh Thuy</t>
-  </si>
-  <si>
-    <t>nh81151776</t>
-  </si>
-  <si>
-    <t>iPhone XS Max</t>
-  </si>
-  <si>
-    <t>PKE127349718-Khánh Thủy</t>
-  </si>
-  <si>
-    <t>j23133816</t>
-  </si>
-  <si>
-    <t>PKE127349721-Dung Ha</t>
-  </si>
-  <si>
-    <t>h1829291</t>
-  </si>
-  <si>
-    <t>PKE127350222-Phuong Nhi</t>
-  </si>
-  <si>
-    <t>iPhone 11</t>
-  </si>
-  <si>
-    <t>iPhone XS</t>
   </si>
 </sst>
 </file>
@@ -432,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,223 +420,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <f ca="1">NOW()</f>
-        <v>43999.623252314814</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F7" ca="1" si="0">NOW()</f>
-        <v>43999.623252314814</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43999.623252314814</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43999.623252314814</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43999.623252314814</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43999.623252314814</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/aaaaa.xlsx
+++ b/data/aaaaa.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>sku</t>
   </si>
@@ -42,6 +42,30 @@
   </si>
   <si>
     <t>case</t>
+  </si>
+  <si>
+    <t>FSG4933865</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>HJ33-FSGRockStar-004795</t>
+  </si>
+  <si>
+    <t>iPhone 11</t>
+  </si>
+  <si>
+    <t>HTV8556210</t>
+  </si>
+  <si>
+    <t>CHASEOKHWAN-08614</t>
+  </si>
+  <si>
+    <t>iPhone 7 / 8 / SE 2020</t>
+  </si>
+  <si>
+    <t>Silicon</t>
   </si>
 </sst>
 </file>
@@ -77,9 +101,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,16 +407,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -420,13 +444,52 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F2" s="1"/>
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f ca="1">NOW()</f>
+        <v>44000.645563888887</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="1"/>
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" ca="1" si="0">NOW()</f>
+        <v>44000.645563888887</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/aaaaa.xlsx
+++ b/data/aaaaa.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingv2\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -16,62 +11,53 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
   <si>
     <t>sku</t>
   </si>
   <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>case</t>
-  </si>
-  <si>
-    <t>FSG4933865</t>
+    <t>hieudz</t>
   </si>
   <si>
     <t>US</t>
   </si>
   <si>
-    <t>HJ33-FSGRockStar-004795</t>
+    <t>aaaa</t>
   </si>
   <si>
     <t>iPhone 11</t>
   </si>
   <si>
-    <t>HTV8556210</t>
-  </si>
-  <si>
-    <t>CHASEOKHWAN-08614</t>
-  </si>
-  <si>
-    <t>iPhone 7 / 8 / SE 2020</t>
-  </si>
-  <si>
-    <t>Silicon</t>
+    <t>glass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -112,9 +99,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -163,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,7 +182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,93 +391,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <f ca="1">NOW()</f>
-        <v>44000.645563888887</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="1">
+        <v>44000.938624537041</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F5" ca="1" si="0">NOW()</f>
-        <v>44000.645563888887</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/aaaaa.xlsx
+++ b/data/aaaaa.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingv2\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -57,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,6 +104,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -147,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,7 +402,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>

--- a/data/aaaaa.xlsx
+++ b/data/aaaaa.xlsx
@@ -50,13 +50,13 @@
     <t>US</t>
   </si>
   <si>
-    <t>aaaa</t>
-  </si>
-  <si>
     <t>iPhone 11</t>
   </si>
   <si>
     <t>glass</t>
+  </si>
+  <si>
+    <t>ABC-35345</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,16 +441,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>44000.938624537041</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/aaaaa.xlsx
+++ b/data/aaaaa.xlsx
@@ -56,7 +56,7 @@
     <t>glass</t>
   </si>
   <si>
-    <t>ABC-35345</t>
+    <t>ABC-35345 12</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/aaaaa.xlsx
+++ b/data/aaaaa.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -44,19 +44,19 @@
     <t>type</t>
   </si>
   <si>
-    <t>hieudz</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>iPhone 11</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>ABC-35345 12</t>
+    <t>us</t>
+  </si>
+  <si>
+    <t>#TMT18690</t>
+  </si>
+  <si>
+    <t>QVTR021104</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro</t>
+  </si>
+  <si>
+    <t>led</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,31 +430,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <f ca="1">NOW()</f>
+        <v>44012.583712500003</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>44000.938624537041</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/aaaaa.xlsx
+++ b/data/aaaaa.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -44,19 +44,19 @@
     <t>type</t>
   </si>
   <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>#TMT18690</t>
-  </si>
-  <si>
-    <t>QVTR021104</t>
-  </si>
-  <si>
-    <t>iPhone 11 Pro</t>
-  </si>
-  <si>
-    <t>led</t>
+    <t>hieudz</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>iPhone 11</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>ABC-35345 12</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,33 +430,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>44000.938624537041</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <f ca="1">NOW()</f>
-        <v>44012.583712500003</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/aaaaa.xlsx
+++ b/data/aaaaa.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingv2\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -44,26 +39,20 @@
     <t>type</t>
   </si>
   <si>
-    <t>hieudz</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
-    <t>iPhone 11</t>
-  </si>
-  <si>
     <t>glass</t>
   </si>
   <si>
-    <t>ABC-35345 12</t>
+    <t>oAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,14 +81,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -155,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,10 +198,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,7 +232,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,16 +407,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,53 +439,129 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>4102924</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4715028</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
-        <v>44000.938624537041</v>
+      <c r="F2" s="2">
+        <f ca="1">NOW()</f>
+        <v>44156.411200925926</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>4102926</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4715030</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F5" ca="1" si="0">NOW()</f>
+        <v>44156.411200925926</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>4102930</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4715035</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>44156.411200925926</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4102931</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4715036</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>44156.411200925926</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
